--- a/tables/test_instances.xlsx
+++ b/tables/test_instances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttdkoc\Desktop\phd\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttdkoc/Documents/dev/workspaces/python/copt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DAFDCE-B246-48E4-8360-6FEC20642D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607FB48-CD55-8D48-8D96-18A87C85BA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{01C746B3-E953-47D9-97CE-0571B09B4C7F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" activeTab="4" xr2:uid="{01C746B3-E953-47D9-97CE-0571B09B4C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,20 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>Instance</t>
   </si>
@@ -84,21 +77,70 @@
   <si>
     <t>average</t>
   </si>
+  <si>
+    <t>Objective Value Gap(%) to Upper-Bound</t>
+  </si>
+  <si>
+    <t>Gap (%)</t>
+  </si>
+  <si>
+    <t>Upper bound</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Relax Greedy</t>
+  </si>
+  <si>
+    <t>Aggregated Greedy</t>
+  </si>
+  <si>
+    <t>BIP</t>
+  </si>
+  <si>
+    <t>Aggregate Greedy</t>
+  </si>
+  <si>
+    <t>Aggregate+ Greedy</t>
+  </si>
+  <si>
+    <t>Relax+ Greedy</t>
+  </si>
+  <si>
+    <t>Objective Value Gap (%)</t>
+  </si>
+  <si>
+    <t>Aggregate+  Greedy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -118,12 +160,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -135,6 +191,39 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -155,7 +244,33 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -163,8 +278,23 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -183,100 +313,101 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,86 +725,90 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -720,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -767,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -814,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -861,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -908,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -955,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1002,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1049,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1096,7 +1231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1143,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1190,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1237,7 +1372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1284,7 +1419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1331,50 +1466,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>20000</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <v>30</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>95000</v>
       </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-      <c r="M17">
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
         <v>45</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>10</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>800000</v>
       </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
+      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1397,486 +1534,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2D0760-6451-4018-B723-D5F4D82A2837}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>23.1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>38.4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>94.8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>105.7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>223.2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>205.1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
         <v>12</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9" t="s">
+      <c r="B15" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>244.3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>246.8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="B16" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>465.3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>450.1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.09</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>4</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>3.7</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>10.4</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="14">
-        <v>11.1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14">
-        <v>13.4</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>18.2</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>15.7</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14">
-        <v>28.4</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>23.1</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>21.6</v>
-      </c>
-      <c r="H10" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="14">
-        <v>44.7</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="G11" s="14">
-        <v>38.4</v>
-      </c>
-      <c r="H11" s="15">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="E12" s="14">
-        <v>94.8</v>
-      </c>
-      <c r="F12" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="G12" s="14">
-        <v>105.7</v>
-      </c>
-      <c r="H12" s="15">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14">
-        <v>13.6</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>128.69999999999999</v>
-      </c>
-      <c r="F13" s="14">
-        <v>5.3</v>
-      </c>
-      <c r="G13" s="14">
-        <v>145.19999999999999</v>
-      </c>
-      <c r="H13" s="15">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>11</v>
-      </c>
-      <c r="B14" s="14">
-        <v>26.1</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>223.2</v>
-      </c>
-      <c r="F14" s="14">
-        <v>14.3</v>
-      </c>
-      <c r="G14" s="14">
-        <v>205.1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="E15" s="14">
-        <v>244.3</v>
-      </c>
-      <c r="F15" s="14">
-        <v>17.2</v>
-      </c>
-      <c r="G15" s="14">
-        <v>246.8</v>
-      </c>
-      <c r="H15" s="15">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>13</v>
-      </c>
-      <c r="B16" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="14">
-        <v>465.3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>60.1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>450.1</v>
-      </c>
-      <c r="H16" s="15">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>14</v>
-      </c>
-      <c r="B17" s="14">
-        <v>13.8</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="E17" s="3">
         <v>1721.7</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="3">
         <v>176.7</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="3">
         <v>727.8</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="3">
         <v>134.6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="3">
         <v>39.5</v>
       </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>2033.9</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="3">
         <v>233.7</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="3">
         <v>1143.2</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="3">
         <v>184.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12">
-        <f>AVERAGE(B4:B18)</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:H19" si="0">AVERAGE(B4:B18)</f>
         <v>11.506666666666668</v>
       </c>
-      <c r="C19" s="12">
-        <f>AVERAGE(C4:C18)</f>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D19" s="13">
-        <f>AVERAGE(D4:D18)</f>
+      <c r="D19" s="29">
+        <f t="shared" si="0"/>
         <v>0.2533333333333333</v>
       </c>
-      <c r="E19" s="12">
-        <f>AVERAGE(E4:E18)</f>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
         <v>334.3866666666666</v>
       </c>
-      <c r="F19" s="12">
-        <f>AVERAGE(F4:F18)</f>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
         <v>34.413333333333334</v>
       </c>
-      <c r="G19" s="12">
-        <f>AVERAGE(G4:G18)</f>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
         <v>207.83933333333334</v>
       </c>
-      <c r="H19" s="13">
-        <f>AVERAGE(H4:H18)</f>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
         <v>28.36</v>
       </c>
     </row>
@@ -1893,494 +2030,519 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFD969B-C6D0-494B-882A-8EB11C136F81}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>16</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>45</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>0.1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="35">
         <v>0.9</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>3348.7</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>370.3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>1389</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>384.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>35.9</v>
       </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
         <v>2.4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>4728.5</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>563</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>1601.1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>584.20000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>18</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>55.8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>0.1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="20">
         <v>0.2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>7368</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>931.8</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>1842</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>794.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>19</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>54.6</v>
       </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
         <v>0.5</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>8126.4</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>1062.0999999999999</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>2024.9</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>891.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>20</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>46.3</v>
       </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
         <v>0.4</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>11567.5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>1341.2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>2885.6</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>1014</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>21</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>49.9</v>
       </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>14750.2</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>1617.7</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>3669.2</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>1291.5999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>22</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>41.7</v>
       </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
         <v>0.4</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>16961.599999999999</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>2007.9</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>4231.3999999999996</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <v>1564.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>23</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>59.9</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>0.2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="20">
         <v>0.4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>20276.900000000001</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>2408.8000000000002</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>5047.3</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>1930.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>24</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>37.799999999999997</v>
       </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
         <v>0.6</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>20687.2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>2781.8</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>5146.5</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>2315.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>25</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>42.7</v>
       </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
         <v>0.8</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>23317.3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>3053.1</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>5819.4</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>2650.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>26</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>15</v>
       </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
         <v>0.9</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>27289.3</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>3337.2</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>6793.2</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>2914.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>27</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>38.1</v>
       </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
         <v>0.1</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>29017.8</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>3722.8</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>7253.8</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <v>3201.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>28</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>37.6</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>0.2</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="20">
         <v>0.9</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>38582.6</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>4306.8</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>9607.5</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <v>3558.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <v>29</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>41.3</v>
       </c>
-      <c r="C17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="20">
         <v>0.5</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>43735.1</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>4848.3</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>10921.4</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>4159.8999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>30</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>59.9</v>
       </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
         <v>48914.3</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>5267</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <v>12174.3</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>4685.6000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="12">
-        <f>AVERAGE(B4:B18)</f>
-        <v>44.099999999999994</v>
+        <v>44.1</v>
       </c>
       <c r="C19" s="12">
-        <f>AVERAGE(C4:C18)</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="D19" s="13">
-        <f>AVERAGE(D4:D18)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.7</v>
       </c>
       <c r="E19" s="12">
-        <f>AVERAGE(E4:E18)</f>
-        <v>21244.76</v>
+        <v>21244.799999999999</v>
       </c>
       <c r="F19" s="12">
-        <f>AVERAGE(F4:F18)</f>
-        <v>2507.9866666666662</v>
+        <v>2508</v>
       </c>
       <c r="G19" s="12">
-        <f>AVERAGE(G4:G18)</f>
-        <v>5360.44</v>
-      </c>
-      <c r="H19" s="13">
-        <f>AVERAGE(H4:H18)</f>
-        <v>2129.4733333333334</v>
-      </c>
+        <v>5360.4</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2129.5</v>
+      </c>
+      <c r="I19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2389,1035 +2551,1869 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H18"/>
+      <selection activeCell="A2" sqref="A2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>31</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>45.5</v>
       </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
         <v>0.5</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>49561.8</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>6257.3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>12356.5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>5102.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <v>32</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>45.5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>0.1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="20">
         <v>2.5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>51034.400000000001</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>7009.4</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>12727</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>5988.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>33</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>31.8</v>
       </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>57914.9</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>7813.5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>14468.2</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>6669.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>34</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>31.8</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>0.1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>68891.399999999994</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>8411</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>17178.900000000001</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>7443.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>35</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>48.7</v>
       </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
         <v>0.3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>76391.5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>9221.1</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>19035.900000000001</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>8069.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>36</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>48.2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>0.1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="20">
         <v>0.7</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>84451.199999999997</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>11020.5</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>21093.5</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <v>8853.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>37</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>50.7</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>0.1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="20">
         <v>0.9</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>91784.4</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>11828.9</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>22945.5</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="11">
         <v>10522.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>38</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>47.6</v>
       </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
         <v>1.4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>99314.4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>12270.3</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>24791.4</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <v>11304.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>39</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>37.4</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>0.1</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="20">
         <v>1.3</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>104934.7</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>13185.3</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>26109.4</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="11">
         <v>11761.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>40</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>19.899999999999999</v>
       </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
         <v>110981.6</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>13489.4</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>27672.6</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <v>12623.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>41</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>18.399999999999999</v>
       </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
         <v>118392.3</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>13929.7</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>29455.200000000001</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <v>12945.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>42</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>19.8</v>
       </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
         <v>120934</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>14446.1</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>30130.400000000001</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="11">
         <v>13400.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>43</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>20.5</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>0.9</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="20">
         <v>0.9</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>121304.8</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>15187.7</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <v>30234.7</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <v>13881.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <v>44</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>20</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>0.4</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="20">
         <v>0.4</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>130217.1</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>16257.3</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>32471.3</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <v>14543.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>45</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>36.5</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>0.2</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="20">
         <v>0.2</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>133405.4</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>17148.900000000001</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="11">
         <v>33238.800000000003</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <v>15571.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="12">
-        <f>AVERAGE(B4:B18)</f>
-        <v>34.82</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C19" s="12">
-        <f>AVERAGE(C4:C18)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="D19" s="13">
-        <f>AVERAGE(D4:D18)</f>
-        <v>0.82666666666666666</v>
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.8</v>
       </c>
       <c r="E19" s="12">
-        <f>AVERAGE(E4:E18)</f>
-        <v>94634.26</v>
+        <v>94634.3</v>
       </c>
       <c r="F19" s="12">
-        <f>AVERAGE(F4:F18)</f>
-        <v>11831.76</v>
+        <v>11831.8</v>
       </c>
       <c r="G19" s="12">
-        <f>AVERAGE(G4:G18)</f>
-        <v>23593.953333333331</v>
-      </c>
-      <c r="H19" s="13">
-        <f>AVERAGE(H4:H18)</f>
-        <v>10578.739999999998</v>
+        <v>23594</v>
+      </c>
+      <c r="H19" s="12">
+        <v>10578.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07837019-CDF3-4138-A9E5-16FAC3D6A798}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4.8</v>
+      </c>
+      <c r="E7" s="18">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E8" s="18">
+        <v>80</v>
+      </c>
+      <c r="F8" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>15.3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="E9" s="18">
+        <v>83</v>
+      </c>
+      <c r="F9" s="11">
+        <v>23</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="11">
+        <v>16.7</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>13.9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="18">
+        <v>73</v>
+      </c>
+      <c r="F10" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>24.2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>88</v>
+      </c>
+      <c r="F11" s="11">
+        <v>63.8</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="H11" s="11">
+        <v>56.7</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="18">
+        <v>92</v>
+      </c>
+      <c r="F12" s="11">
+        <v>95.8</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="H12" s="11">
+        <v>106.9</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
+        <v>22.5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="E13" s="18">
+        <v>93</v>
+      </c>
+      <c r="F13" s="11">
+        <v>123.1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11">
+        <v>183.1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="E14" s="18">
+        <v>85</v>
+      </c>
+      <c r="F14" s="11">
+        <v>216.9</v>
+      </c>
+      <c r="G14" s="11">
+        <v>23.1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>219.8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>26.2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>14.7</v>
+      </c>
+      <c r="E15" s="18">
+        <v>93</v>
+      </c>
+      <c r="F15" s="11">
+        <v>326.2</v>
+      </c>
+      <c r="G15" s="11">
+        <v>23.3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>238.7</v>
+      </c>
+      <c r="I15" s="11">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <v>28</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>92</v>
+      </c>
+      <c r="F16" s="11">
+        <v>547.79999999999995</v>
+      </c>
+      <c r="G16" s="11">
+        <v>72.7</v>
+      </c>
+      <c r="H16" s="11">
+        <v>476.2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>91</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2062.3000000000002</v>
+      </c>
+      <c r="G17" s="11">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="H17" s="11">
+        <v>821.6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11">
+        <v>13.6</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>89</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2337.4</v>
+      </c>
+      <c r="G18" s="11">
+        <v>248.1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1174.8</v>
+      </c>
+      <c r="I18" s="11">
+        <v>190.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E19" s="18">
+        <v>93</v>
+      </c>
+      <c r="F19" s="11">
+        <v>3581.3</v>
+      </c>
+      <c r="G19" s="11">
+        <v>390</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1400.9</v>
+      </c>
+      <c r="I19" s="11">
+        <v>393.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>8.6</v>
+      </c>
+      <c r="E20" s="18">
+        <v>93</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4757.8999999999996</v>
+      </c>
+      <c r="G20" s="11">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1667.6</v>
+      </c>
+      <c r="I20" s="11">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12">
+        <v>12.6</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>6.6</v>
+      </c>
+      <c r="E21" s="38">
+        <v>82</v>
+      </c>
+      <c r="F21" s="12">
+        <v>834.3</v>
+      </c>
+      <c r="G21" s="12">
+        <v>85.6</v>
+      </c>
+      <c r="H21" s="12">
+        <v>377.4</v>
+      </c>
+      <c r="I21" s="12">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFCA4B0-1A0D-C340-A860-D91F7867D4F9}">
+  <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H20"/>
+      <selection activeCell="A2" sqref="A2:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.13</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1.55</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1.58</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>3.51</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2.88</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>4.8</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6.32</v>
-      </c>
-      <c r="F7" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G7" s="14">
-        <v>5.09</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E8" s="14">
-        <v>12.26</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="11">
+        <v>806.8</v>
+      </c>
+      <c r="F4" s="11">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11">
+        <v>26.7</v>
+      </c>
+      <c r="C5" s="11">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="11">
+        <v>946.4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1146.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11">
+        <v>41.6</v>
+      </c>
+      <c r="C6" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="11">
+        <v>1130.5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1405.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11">
+        <v>56.8</v>
+      </c>
+      <c r="C7" s="11">
+        <v>50.2</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="11">
+        <v>1214.8</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1716.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11">
+        <v>47.9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>46</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="11">
+        <v>1589.9</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11">
+        <v>26.6</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="11">
+        <v>1943.5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11">
+        <v>46.7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>38</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="11">
+        <v>2495.6999999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2893.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43.6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="11">
+        <v>2908.5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3058.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C12" s="11">
         <v>15.3</v>
       </c>
-      <c r="H8" s="15">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0.08</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="E9" s="14">
-        <v>22.96</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.62</v>
-      </c>
-      <c r="G9" s="14">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14">
-        <v>13.9</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D12" s="20"/>
+      <c r="E12" s="11">
+        <v>3239</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3471.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45.2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>38.6</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="11">
+        <v>3381.9</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3748.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11">
+        <v>40.4</v>
+      </c>
+      <c r="C14" s="11">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="11">
+        <v>3821.7</v>
+      </c>
+      <c r="F14" s="11">
+        <v>4326.1000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C15" s="11">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="11">
+        <v>4109.8</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4900.3999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>30</v>
+      </c>
+      <c r="B16" s="24">
+        <v>54.5</v>
+      </c>
+      <c r="C16" s="24">
+        <v>47.2</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24">
+        <v>5087</v>
+      </c>
+      <c r="F16" s="24">
+        <v>5119.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11">
+        <v>20.9</v>
+      </c>
+      <c r="C17" s="11">
+        <v>16</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="11">
+        <v>5334</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6648.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>32</v>
+      </c>
+      <c r="B18" s="11">
+        <v>42.6</v>
+      </c>
+      <c r="C18" s="11">
+        <v>36</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="11">
+        <v>6070.9</v>
+      </c>
+      <c r="F18" s="11">
+        <v>7592.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>23.3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="11">
+        <v>6849.5</v>
+      </c>
+      <c r="F19" s="11">
+        <v>7971.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="11">
+        <v>7988.5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>8257.2999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>35</v>
+      </c>
+      <c r="B21" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="C21" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="11">
+        <v>8639.4</v>
+      </c>
+      <c r="F21" s="11">
+        <v>9738.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>36</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44.4</v>
+      </c>
+      <c r="C22" s="11">
+        <v>38.6</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="11">
+        <v>9209.2999999999993</v>
+      </c>
+      <c r="F22" s="11">
+        <v>11858.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44.8</v>
+      </c>
+      <c r="C23" s="11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="11">
+        <v>10806.4</v>
+      </c>
+      <c r="F23" s="11">
+        <v>12023.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11">
+        <v>38.1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>29.8</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="11">
+        <v>12865.2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>12260.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="C25" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="11">
+        <v>12139.4</v>
+      </c>
+      <c r="F25" s="11">
+        <v>13711.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>40</v>
+      </c>
+      <c r="B26" s="11">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C26" s="11">
+        <v>17</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="11">
+        <v>13295.5</v>
+      </c>
+      <c r="F26" s="11">
+        <v>14013.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11">
+        <v>34</v>
+      </c>
+      <c r="C27" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="11">
+        <v>14883</v>
+      </c>
+      <c r="F27" s="11">
+        <v>14241.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>42</v>
+      </c>
+      <c r="B28" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="C28" s="11">
         <v>23.9</v>
       </c>
-      <c r="F10" s="14">
-        <v>1.55</v>
-      </c>
-      <c r="G10" s="14">
-        <v>27.34</v>
-      </c>
-      <c r="H10" s="15">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14">
-        <v>24.2</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="E11" s="14">
-        <v>63.76</v>
-      </c>
-      <c r="F11" s="14">
-        <v>2.78</v>
-      </c>
-      <c r="G11" s="14">
-        <v>56.73</v>
-      </c>
-      <c r="H11" s="15">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="E12" s="14">
-        <v>95.75</v>
-      </c>
-      <c r="F12" s="14">
-        <v>7.73</v>
-      </c>
-      <c r="G12" s="14">
-        <v>106.88</v>
-      </c>
-      <c r="H12" s="15">
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14">
-        <v>22.5</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D13" s="15">
-        <v>6.9</v>
-      </c>
-      <c r="E13" s="14">
-        <v>123.14</v>
-      </c>
-      <c r="F13" s="14">
-        <v>6.01</v>
-      </c>
-      <c r="G13" s="14">
-        <v>183.1</v>
-      </c>
-      <c r="H13" s="15">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>11</v>
-      </c>
-      <c r="B14" s="14">
-        <v>29.5</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>11.9</v>
-      </c>
-      <c r="E14" s="14">
-        <v>216.93</v>
-      </c>
-      <c r="F14" s="14">
-        <v>23.09</v>
-      </c>
-      <c r="G14" s="14">
-        <v>219.84</v>
-      </c>
-      <c r="H14" s="15">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14">
-        <v>26.2</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.69</v>
-      </c>
-      <c r="D15" s="15">
-        <v>14.7</v>
-      </c>
-      <c r="E15" s="14">
-        <v>326.14999999999998</v>
-      </c>
-      <c r="F15" s="14">
-        <v>23.32</v>
-      </c>
-      <c r="G15" s="14">
-        <v>238.67</v>
-      </c>
-      <c r="H15" s="15">
-        <v>14.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>13</v>
-      </c>
-      <c r="B16" s="14">
-        <v>28</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="D16" s="15">
-        <v>14.1</v>
-      </c>
-      <c r="E16" s="14">
-        <v>547.82000000000005</v>
-      </c>
-      <c r="F16" s="14">
-        <v>72.66</v>
-      </c>
-      <c r="G16" s="14">
-        <v>476.17</v>
-      </c>
-      <c r="H16" s="15">
-        <v>81.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>14</v>
-      </c>
-      <c r="B17" s="14">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="15">
-        <v>12.4</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2062.34</v>
-      </c>
-      <c r="F17" s="14">
-        <v>163.68</v>
-      </c>
-      <c r="G17" s="14">
-        <v>821.61</v>
-      </c>
-      <c r="H17" s="15">
-        <v>193.59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14">
-        <v>13.6</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D18" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2337.4299999999998</v>
-      </c>
-      <c r="F18" s="14">
-        <v>248.13</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1174.75</v>
-      </c>
-      <c r="H18" s="15">
-        <v>190.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>16</v>
-      </c>
-      <c r="B19" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E19" s="14">
-        <v>3581.33</v>
-      </c>
-      <c r="F19" s="14">
-        <v>390.01</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1400.85</v>
-      </c>
-      <c r="H19" s="15">
-        <v>393.57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>17</v>
-      </c>
-      <c r="B20" s="14">
-        <v>8.6</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D20" s="15">
-        <v>8.6</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4757.93</v>
-      </c>
-      <c r="F20" s="14">
-        <v>514.65</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1667.61</v>
-      </c>
-      <c r="H20" s="15">
-        <v>597.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="12">
-        <f>AVERAGE(B4:B20)</f>
-        <v>12.6</v>
-      </c>
-      <c r="C21" s="12">
-        <f>AVERAGE(C4:C20)</f>
-        <v>0.15941176470588234</v>
-      </c>
-      <c r="D21" s="13">
-        <f>AVERAGE(D4:D20)</f>
-        <v>6.6</v>
-      </c>
-      <c r="E21" s="12">
-        <f>AVERAGE(E4:E20)</f>
-        <v>834.30470588235301</v>
-      </c>
-      <c r="F21" s="12">
-        <f>AVERAGE(F4:F20)</f>
-        <v>85.584117647058818</v>
-      </c>
-      <c r="G21" s="12">
-        <f>AVERAGE(G4:G20)</f>
-        <v>377.36882352941171</v>
-      </c>
-      <c r="H21" s="13">
-        <f>AVERAGE(H4:H20)</f>
-        <v>88.789411764705875</v>
+      <c r="D28" s="20"/>
+      <c r="E28" s="11">
+        <v>15845.3</v>
+      </c>
+      <c r="F28" s="11">
+        <v>14894.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>43</v>
+      </c>
+      <c r="B29" s="11">
+        <v>29.2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>22.1</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="11">
+        <v>15975.7</v>
+      </c>
+      <c r="F29" s="11">
+        <v>15338.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>44</v>
+      </c>
+      <c r="B30" s="11">
+        <v>37</v>
+      </c>
+      <c r="C30" s="11">
+        <v>30</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="11">
+        <v>15850</v>
+      </c>
+      <c r="F30" s="11">
+        <v>16377.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11">
+        <v>52.3</v>
+      </c>
+      <c r="C31" s="11">
+        <v>48.1</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="11">
+        <v>16546.5</v>
+      </c>
+      <c r="F31" s="11">
+        <v>17626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="C32" s="12">
+        <v>29.7</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="12">
+        <v>7320.5</v>
+      </c>
+      <c r="F32" s="12">
+        <v>7857.9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CEF28F-ED02-9247-9490-969460E1EA3F}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>80</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>83</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>73</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>88</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>92</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>85</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>93</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>92</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>91</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>89</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>93</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>93</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15">
+        <f>AVERAGE(B5:B19)</f>
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>